--- a/out/CE/falselink/Figori_algorithm_24.xlsx
+++ b/out/CE/falselink/Figori_algorithm_24.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.90739999999999998</v>
+        <v>0.91810000000000003</v>
       </c>
       <c r="B1">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="C1">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="D1">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.8841</v>
+      </c>
+      <c r="F1">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="G1">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="H1">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="I1">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L1">
+        <v>0.8972</v>
+      </c>
+      <c r="M1">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="N1">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="O1">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="R1">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="S1">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="T1">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="U1">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="V1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="X1">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="Y1">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="AC1">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="AD1">
+        <v>0.8962</v>
+      </c>
+      <c r="AE1">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="AF1">
+        <v>0.91</v>
+      </c>
+      <c r="AG1">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="AI1">
+        <v>0.9123</v>
+      </c>
+      <c r="AJ1">
+        <v>0.9</v>
+      </c>
+      <c r="AK1">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="AL1">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="AM1">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="AN1">
         <v>0.90429999999999999</v>
       </c>
-      <c r="C1">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="D1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E1">
-        <v>0.9113</v>
-      </c>
-      <c r="F1">
-        <v>0.89970000000000006</v>
-      </c>
-      <c r="G1">
-        <v>0.88980000000000004</v>
-      </c>
-      <c r="H1">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="I1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="J1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="K1">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="L1">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="M1">
-        <v>0.9153</v>
-      </c>
-      <c r="N1">
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="P1">
-        <v>0.89649999999999996</v>
-      </c>
-      <c r="Q1">
-        <v>0.9073</v>
-      </c>
-      <c r="R1">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="S1">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="T1">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="U1">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="V1">
-        <v>0.91579999999999995</v>
-      </c>
-      <c r="W1">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="X1">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="Y1">
-        <v>0.90239999999999998</v>
-      </c>
-      <c r="Z1">
-        <v>0.9113</v>
-      </c>
-      <c r="AA1">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="AB1">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="AC1">
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="AD1">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="AE1">
-        <v>0.88680000000000003</v>
-      </c>
-      <c r="AF1">
-        <v>0.91310000000000002</v>
-      </c>
-      <c r="AG1">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="AH1">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="AI1">
-        <v>0.92059999999999997</v>
-      </c>
-      <c r="AJ1">
-        <v>0.90949999999999998</v>
-      </c>
-      <c r="AK1">
-        <v>0.90780000000000005</v>
-      </c>
-      <c r="AL1">
-        <v>0.8972</v>
-      </c>
-      <c r="AM1">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="AN1">
-        <v>0.90159999999999996</v>
-      </c>
       <c r="AO1">
-        <v>0.91059999999999997</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.90769999999999995</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="AQ1">
-        <v>0.91920000000000002</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="AR1">
-        <v>0.90759999999999996</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.91320000000000001</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="AT1">
-        <v>0.91269999999999996</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.89949999999999997</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="AV1">
-        <v>0.90639999999999998</v>
+        <v>0.9254</v>
       </c>
       <c r="AW1">
-        <v>0.92410000000000003</v>
+        <v>0.89759999999999995</v>
       </c>
       <c r="AX1">
-        <v>0.89949999999999997</v>
+        <v>0.90090000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.89629999999999999</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="B2">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.8861</v>
+      </c>
+      <c r="E2">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="J2">
         <v>0.88380000000000003</v>
       </c>
-      <c r="C2">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.88419999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.87309999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.86150000000000004</v>
-      </c>
-      <c r="H2">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.8861</v>
-      </c>
       <c r="K2">
-        <v>0.90049999999999997</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="L2">
-        <v>0.88929999999999998</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="M2">
-        <v>0.8901</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="N2">
-        <v>0.87909999999999999</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="O2">
-        <v>0.90249999999999997</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="P2">
-        <v>0.86560000000000004</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="Q2">
-        <v>0.87929999999999997</v>
+        <v>0.8659</v>
       </c>
       <c r="R2">
-        <v>0.87939999999999996</v>
+        <v>0.89610000000000001</v>
       </c>
       <c r="S2">
-        <v>0.89670000000000005</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="T2">
-        <v>0.87749999999999995</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="U2">
-        <v>0.88490000000000002</v>
+        <v>0.88619999999999999</v>
       </c>
       <c r="V2">
-        <v>0.89449999999999996</v>
+        <v>0.89219999999999999</v>
       </c>
       <c r="W2">
-        <v>0.872</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="X2">
-        <v>0.86729999999999996</v>
+        <v>0.87690000000000001</v>
       </c>
       <c r="Y2">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="AA2">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="AB2">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="AE2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="AH2">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="AI2">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="AJ2">
         <v>0.87480000000000002</v>
       </c>
-      <c r="Z2">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="AA2">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="AB2">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="AC2">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="AD2">
-        <v>0.86160000000000003</v>
-      </c>
-      <c r="AE2">
-        <v>0.86129999999999995</v>
-      </c>
-      <c r="AF2">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="AG2">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="AH2">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="AI2">
-        <v>0.89</v>
-      </c>
-      <c r="AJ2">
-        <v>0.88529999999999998</v>
-      </c>
       <c r="AK2">
-        <v>0.88329999999999997</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="AL2">
-        <v>0.85970000000000002</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="AM2">
-        <v>0.87670000000000003</v>
+        <v>0.9012</v>
       </c>
       <c r="AN2">
-        <v>0.88360000000000005</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="AO2">
-        <v>0.88629999999999998</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="AP2">
-        <v>0.8911</v>
+        <v>0.86960000000000004</v>
       </c>
       <c r="AQ2">
-        <v>0.9012</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="AR2">
-        <v>0.89600000000000002</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.87980000000000003</v>
+        <v>0.88739999999999997</v>
       </c>
       <c r="AT2">
-        <v>0.89449999999999996</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="AU2">
-        <v>0.87649999999999995</v>
+        <v>0.8851</v>
       </c>
       <c r="AV2">
-        <v>0.87490000000000001</v>
+        <v>0.91010000000000002</v>
       </c>
       <c r="AW2">
-        <v>0.90180000000000005</v>
+        <v>0.87280000000000002</v>
       </c>
       <c r="AX2">
-        <v>0.87929999999999997</v>
+        <v>0.87880000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85750000000000004</v>
+        <v>0.83840000000000003</v>
       </c>
       <c r="B3">
-        <v>0.83209999999999995</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8589</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="D3">
-        <v>0.82989999999999997</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="E3">
-        <v>0.84599999999999997</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="F3">
-        <v>0.82540000000000002</v>
+        <v>0.86939999999999995</v>
       </c>
       <c r="G3">
-        <v>0.81840000000000002</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="H3">
-        <v>0.83760000000000001</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="I3">
-        <v>0.84019999999999995</v>
+        <v>0.83860000000000001</v>
       </c>
       <c r="J3">
-        <v>0.85240000000000005</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="K3">
-        <v>0.85880000000000001</v>
+        <v>0.83520000000000005</v>
       </c>
       <c r="L3">
-        <v>0.84550000000000003</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="M3">
-        <v>0.8397</v>
+        <v>0.79869999999999997</v>
       </c>
       <c r="N3">
-        <v>0.83099999999999996</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="O3">
-        <v>0.86509999999999998</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="P3">
-        <v>0.8266</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="Q3">
-        <v>0.83089999999999997</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="R3">
-        <v>0.85570000000000002</v>
+        <v>0.86619999999999997</v>
       </c>
       <c r="S3">
-        <v>0.85670000000000002</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="T3">
-        <v>0.83030000000000004</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="U3">
-        <v>0.84519999999999995</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="V3">
-        <v>0.84289999999999998</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="W3">
-        <v>0.82930000000000004</v>
+        <v>0.83340000000000003</v>
       </c>
       <c r="X3">
-        <v>0.8377</v>
+        <v>0.8387</v>
       </c>
       <c r="Y3">
-        <v>0.82930000000000004</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="Z3">
-        <v>0.85229999999999995</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="AA3">
-        <v>0.82410000000000005</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="AB3">
-        <v>0.8095</v>
+        <v>0.84940000000000004</v>
       </c>
       <c r="AC3">
-        <v>0.86380000000000001</v>
+        <v>0.83309999999999995</v>
       </c>
       <c r="AD3">
-        <v>0.81430000000000002</v>
+        <v>0.81069999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.83960000000000001</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="AF3">
-        <v>0.84619999999999995</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="AG3">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="AI3">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="AJ3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AK3">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="AL3">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="AM3">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="AO3">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="AP3">
+        <v>0.8337</v>
+      </c>
+      <c r="AQ3">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="AS3">
         <v>0.83420000000000005</v>
       </c>
-      <c r="AH3">
-        <v>0.86180000000000001</v>
-      </c>
-      <c r="AI3">
-        <v>0.84509999999999996</v>
-      </c>
-      <c r="AJ3">
-        <v>0.83660000000000001</v>
-      </c>
-      <c r="AK3">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="AL3">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="AM3">
-        <v>0.83630000000000004</v>
-      </c>
-      <c r="AN3">
-        <v>0.82720000000000005</v>
-      </c>
-      <c r="AO3">
-        <v>0.84350000000000003</v>
-      </c>
-      <c r="AP3">
-        <v>0.8397</v>
-      </c>
-      <c r="AQ3">
-        <v>0.85289999999999999</v>
-      </c>
-      <c r="AR3">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="AS3">
-        <v>0.83330000000000004</v>
-      </c>
       <c r="AT3">
-        <v>0.84930000000000005</v>
+        <v>0.83830000000000005</v>
       </c>
       <c r="AU3">
-        <v>0.85440000000000005</v>
+        <v>0.8206</v>
       </c>
       <c r="AV3">
-        <v>0.8387</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.85409999999999997</v>
+        <v>0.82150000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.83760000000000001</v>
+        <v>0.83650000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.80689999999999995</v>
+        <v>0.7782</v>
       </c>
       <c r="B4">
-        <v>0.78159999999999996</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="C4">
-        <v>0.80110000000000003</v>
+        <v>0.78410000000000002</v>
       </c>
       <c r="D4">
-        <v>0.76680000000000004</v>
+        <v>0.7974</v>
       </c>
       <c r="E4">
-        <v>0.79669999999999996</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="F4">
-        <v>0.78290000000000004</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="G4">
-        <v>0.7671</v>
+        <v>0.78180000000000005</v>
       </c>
       <c r="H4">
-        <v>0.78010000000000002</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="I4">
-        <v>0.78449999999999998</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="J4">
-        <v>0.80100000000000005</v>
+        <v>0.79630000000000001</v>
       </c>
       <c r="K4">
-        <v>0.81310000000000004</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="L4">
-        <v>0.78349999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="M4">
-        <v>0.79190000000000005</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="N4">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="P4">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="S4">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="U4">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="V4">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="W4">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="X4">
+        <v>0.77759999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.75890000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.79969999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>0.7601</v>
+      </c>
+      <c r="AB4">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="AD4">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>0.7873</v>
+      </c>
+      <c r="AG4">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="AH4">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="AI4">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="AK4">
         <v>0.77349999999999997</v>
       </c>
-      <c r="O4">
-        <v>0.80149999999999999</v>
-      </c>
-      <c r="P4">
-        <v>0.78249999999999997</v>
-      </c>
-      <c r="Q4">
-        <v>0.79559999999999997</v>
-      </c>
-      <c r="R4">
-        <v>0.80369999999999997</v>
-      </c>
-      <c r="S4">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="T4">
-        <v>0.77859999999999996</v>
-      </c>
-      <c r="U4">
-        <v>0.78959999999999997</v>
-      </c>
-      <c r="V4">
-        <v>0.78959999999999997</v>
-      </c>
-      <c r="W4">
-        <v>0.754</v>
-      </c>
-      <c r="X4">
-        <v>0.76780000000000004</v>
-      </c>
-      <c r="Y4">
-        <v>0.75390000000000001</v>
-      </c>
-      <c r="Z4">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="AA4">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="AB4">
-        <v>0.76539999999999997</v>
-      </c>
-      <c r="AC4">
-        <v>0.80410000000000004</v>
-      </c>
-      <c r="AD4">
+      <c r="AL4">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="AM4">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="AO4">
+        <v>0.80830000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="AQ4">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="AR4">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="AS4">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="AT4">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="AU4">
         <v>0.77100000000000002</v>
       </c>
-      <c r="AE4">
-        <v>0.78890000000000005</v>
-      </c>
-      <c r="AF4">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="AG4">
-        <v>0.78949999999999998</v>
-      </c>
-      <c r="AH4">
-        <v>0.82440000000000002</v>
-      </c>
-      <c r="AI4">
-        <v>0.7893</v>
-      </c>
-      <c r="AJ4">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="AK4">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="AL4">
-        <v>0.76490000000000002</v>
-      </c>
-      <c r="AM4">
-        <v>0.78910000000000002</v>
-      </c>
-      <c r="AN4">
-        <v>0.77890000000000004</v>
-      </c>
-      <c r="AO4">
-        <v>0.79659999999999997</v>
-      </c>
-      <c r="AP4">
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="AQ4">
-        <v>0.80859999999999999</v>
-      </c>
-      <c r="AR4">
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="AS4">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="AT4">
-        <v>0.79690000000000005</v>
-      </c>
-      <c r="AU4">
-        <v>0.79620000000000002</v>
-      </c>
       <c r="AV4">
-        <v>0.79790000000000005</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="AW4">
-        <v>0.78480000000000005</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AX4">
-        <v>0.77159999999999995</v>
+        <v>0.76839999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.76629999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="B5">
-        <v>0.70940000000000003</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="C5">
-        <v>0.75109999999999999</v>
+        <v>0.73460000000000003</v>
       </c>
       <c r="D5">
-        <v>0.74609999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E5">
-        <v>0.74650000000000005</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="F5">
-        <v>0.75060000000000004</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="G5">
-        <v>0.7006</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="H5">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.73550000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="V5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="X5">
+        <v>0.7228</v>
+      </c>
+      <c r="Y5">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="AC5">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="AD5">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="AF5">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="AH5">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="AJ5">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="AK5">
+        <v>0.72950000000000004</v>
+      </c>
+      <c r="AL5">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="AM5">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="AN5">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="AO5">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="AR5">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="AS5">
         <v>0.73250000000000004</v>
       </c>
-      <c r="I5">
-        <v>0.7409</v>
-      </c>
-      <c r="J5">
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.76890000000000003</v>
-      </c>
-      <c r="L5">
-        <v>0.7571</v>
-      </c>
-      <c r="M5">
-        <v>0.75170000000000003</v>
-      </c>
-      <c r="N5">
-        <v>0.73419999999999996</v>
-      </c>
-      <c r="O5">
-        <v>0.74170000000000003</v>
-      </c>
-      <c r="P5">
-        <v>0.72370000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.75139999999999996</v>
-      </c>
-      <c r="R5">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="S5">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="T5">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="U5">
-        <v>0.7621</v>
-      </c>
-      <c r="V5">
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="W5">
-        <v>0.72489999999999999</v>
-      </c>
-      <c r="X5">
-        <v>0.73229999999999995</v>
-      </c>
-      <c r="Y5">
-        <v>0.71550000000000002</v>
-      </c>
-      <c r="Z5">
-        <v>0.73939999999999995</v>
-      </c>
-      <c r="AA5">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.74019999999999997</v>
-      </c>
-      <c r="AC5">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="AD5">
-        <v>0.71960000000000002</v>
-      </c>
-      <c r="AE5">
-        <v>0.74729999999999996</v>
-      </c>
-      <c r="AF5">
-        <v>0.75649999999999995</v>
-      </c>
-      <c r="AG5">
-        <v>0.7581</v>
-      </c>
-      <c r="AH5">
-        <v>0.76990000000000003</v>
-      </c>
-      <c r="AI5">
-        <v>0.76619999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7571</v>
-      </c>
-      <c r="AK5">
-        <v>0.77029999999999998</v>
-      </c>
-      <c r="AL5">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="AM5">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="AN5">
-        <v>0.75670000000000004</v>
-      </c>
-      <c r="AO5">
-        <v>0.76019999999999999</v>
-      </c>
-      <c r="AP5">
-        <v>0.73450000000000004</v>
-      </c>
-      <c r="AQ5">
-        <v>0.76380000000000003</v>
-      </c>
-      <c r="AR5">
-        <v>0.75370000000000004</v>
-      </c>
-      <c r="AS5">
-        <v>0.72050000000000003</v>
-      </c>
       <c r="AT5">
-        <v>0.74650000000000005</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="AU5">
-        <v>0.75009999999999999</v>
+        <v>0.72060000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.76580000000000004</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="AW5">
-        <v>0.74360000000000004</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.74519999999999997</v>
+        <v>0.74239999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.74839999999999995</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="B6">
-        <v>0.70879999999999999</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="C6">
-        <v>0.71589999999999998</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="D6">
-        <v>0.71609999999999996</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="E6">
-        <v>0.72529999999999994</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="F6">
-        <v>0.71830000000000005</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="G6">
-        <v>0.65990000000000004</v>
+        <v>0.6986</v>
       </c>
       <c r="H6">
-        <v>0.69950000000000001</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="I6">
-        <v>0.70809999999999995</v>
+        <v>0.69379999999999997</v>
       </c>
       <c r="J6">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="L6">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="M6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N6">
+        <v>0.7208</v>
+      </c>
+      <c r="O6">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.7409</v>
+      </c>
+      <c r="Q6">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0.7198</v>
+      </c>
+      <c r="S6">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="T6">
+        <v>0.7218</v>
+      </c>
+      <c r="U6">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.7339</v>
+      </c>
+      <c r="W6">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.70020000000000004</v>
+      </c>
+      <c r="Z6">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="AA6">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="AC6">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="AD6">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="AE6">
+        <v>0.7419</v>
+      </c>
+      <c r="AF6">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="AH6">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AI6">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AL6">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="AM6">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="AN6">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AO6">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="AP6">
         <v>0.72009999999999996</v>
       </c>
-      <c r="K6">
-        <v>0.74450000000000005</v>
-      </c>
-      <c r="L6">
-        <v>0.73429999999999995</v>
-      </c>
-      <c r="M6">
-        <v>0.71550000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0.72689999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.7177</v>
-      </c>
-      <c r="P6">
-        <v>0.69189999999999996</v>
-      </c>
-      <c r="Q6">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="R6">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="S6">
-        <v>0.72489999999999999</v>
-      </c>
-      <c r="T6">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="U6">
-        <v>0.72640000000000005</v>
-      </c>
-      <c r="V6">
-        <v>0.73050000000000004</v>
-      </c>
-      <c r="W6">
-        <v>0.67420000000000002</v>
-      </c>
-      <c r="X6">
-        <v>0.6875</v>
-      </c>
-      <c r="Y6">
-        <v>0.70220000000000005</v>
-      </c>
-      <c r="Z6">
-        <v>0.71870000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>0.7036</v>
-      </c>
-      <c r="AB6">
-        <v>0.73350000000000004</v>
-      </c>
-      <c r="AC6">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="AD6">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="AE6">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="AF6">
-        <v>0.71919999999999995</v>
-      </c>
-      <c r="AG6">
-        <v>0.72789999999999999</v>
-      </c>
-      <c r="AH6">
-        <v>0.73829999999999996</v>
-      </c>
-      <c r="AI6">
-        <v>0.74939999999999996</v>
-      </c>
-      <c r="AJ6">
+      <c r="AQ6">
+        <v>0.72909999999999997</v>
+      </c>
+      <c r="AR6">
         <v>0.7228</v>
       </c>
-      <c r="AK6">
-        <v>0.72560000000000002</v>
-      </c>
-      <c r="AL6">
-        <v>0.70340000000000003</v>
-      </c>
-      <c r="AM6">
-        <v>0.70469999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>0.70889999999999997</v>
-      </c>
-      <c r="AO6">
-        <v>0.71870000000000001</v>
-      </c>
-      <c r="AP6">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="AQ6">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="AR6">
-        <v>0.71409999999999996</v>
-      </c>
       <c r="AS6">
-        <v>0.68530000000000002</v>
+        <v>0.6956</v>
       </c>
       <c r="AT6">
-        <v>0.71750000000000003</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.71160000000000001</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="AV6">
-        <v>0.74060000000000004</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.71460000000000001</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AX6">
-        <v>0.71189999999999998</v>
+        <v>0.71989999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.71250000000000002</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="B7">
-        <v>0.68010000000000004</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="C7">
-        <v>0.68740000000000001</v>
+        <v>0.69420000000000004</v>
       </c>
       <c r="D7">
-        <v>0.70369999999999999</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="E7">
-        <v>0.68959999999999999</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="F7">
-        <v>0.7046</v>
+        <v>0.7268</v>
       </c>
       <c r="G7">
-        <v>0.65400000000000003</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="H7">
-        <v>0.66759999999999997</v>
+        <v>0.72070000000000001</v>
       </c>
       <c r="I7">
-        <v>0.6875</v>
+        <v>0.68410000000000004</v>
       </c>
       <c r="J7">
-        <v>0.70030000000000003</v>
+        <v>0.67190000000000005</v>
       </c>
       <c r="K7">
-        <v>0.71240000000000003</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="L7">
-        <v>0.70609999999999995</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="M7">
-        <v>0.69689999999999996</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="N7">
-        <v>0.70899999999999996</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="O7">
-        <v>0.69769999999999999</v>
+        <v>0.72519999999999996</v>
       </c>
       <c r="P7">
-        <v>0.67949999999999999</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.69789999999999996</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="R7">
-        <v>0.71630000000000005</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="S7">
-        <v>0.69069999999999998</v>
+        <v>0.68810000000000004</v>
       </c>
       <c r="T7">
-        <v>0.69310000000000005</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="U7">
-        <v>0.71970000000000001</v>
+        <v>0.72260000000000002</v>
       </c>
       <c r="V7">
-        <v>0.70840000000000003</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="W7">
-        <v>0.66110000000000002</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="X7">
-        <v>0.67069999999999996</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="Y7">
-        <v>0.68700000000000006</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="Z7">
-        <v>0.69799999999999995</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="AA7">
-        <v>0.70520000000000005</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.70430000000000004</v>
+        <v>0.69320000000000004</v>
       </c>
       <c r="AC7">
-        <v>0.7127</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.67369999999999997</v>
+        <v>0.62690000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.69750000000000001</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.6996</v>
+        <v>0.67569999999999997</v>
       </c>
       <c r="AG7">
-        <v>0.69989999999999997</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="AH7">
-        <v>0.71289999999999998</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.71699999999999997</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.6915</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="AK7">
-        <v>0.70179999999999998</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.68500000000000005</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.68600000000000005</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AN7">
-        <v>0.69510000000000005</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.68500000000000005</v>
+        <v>0.71030000000000004</v>
       </c>
       <c r="AP7">
-        <v>0.68320000000000003</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AQ7">
-        <v>0.71289999999999998</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="AR7">
-        <v>0.70120000000000005</v>
+        <v>0.69520000000000004</v>
       </c>
       <c r="AS7">
-        <v>0.66839999999999999</v>
+        <v>0.6905</v>
       </c>
       <c r="AT7">
-        <v>0.70940000000000003</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="AU7">
-        <v>0.69530000000000003</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.73429999999999995</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="AW7">
-        <v>0.68489999999999995</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="AX7">
-        <v>0.70099999999999996</v>
+        <v>0.70089999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69220000000000004</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="B8">
-        <v>0.64419999999999999</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="C8">
-        <v>0.68430000000000002</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="D8">
-        <v>0.69359999999999999</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E8">
-        <v>0.68079999999999996</v>
+        <v>0.61719999999999997</v>
       </c>
       <c r="F8">
-        <v>0.66710000000000003</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="G8">
-        <v>0.64770000000000005</v>
+        <v>0.6512</v>
       </c>
       <c r="H8">
-        <v>0.66080000000000005</v>
+        <v>0.6956</v>
       </c>
       <c r="I8">
-        <v>0.67679999999999996</v>
+        <v>0.66039999999999999</v>
       </c>
       <c r="J8">
-        <v>0.69550000000000001</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="K8">
-        <v>0.70479999999999998</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="L8">
-        <v>0.69920000000000004</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="M8">
-        <v>0.68030000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="N8">
-        <v>0.69020000000000004</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="O8">
-        <v>0.68300000000000005</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="P8">
-        <v>0.66569999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="Q8">
-        <v>0.69020000000000004</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="R8">
-        <v>0.7077</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="S8">
-        <v>0.66479999999999995</v>
+        <v>0.67820000000000003</v>
       </c>
       <c r="T8">
+        <v>0.68779999999999997</v>
+      </c>
+      <c r="U8">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="V8">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="X8">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="Y8">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="AA8">
         <v>0.68440000000000001</v>
       </c>
-      <c r="U8">
-        <v>0.70320000000000005</v>
-      </c>
-      <c r="V8">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="W8">
-        <v>0.65720000000000001</v>
-      </c>
-      <c r="X8">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="Y8">
+      <c r="AB8">
+        <v>0.6734</v>
+      </c>
+      <c r="AC8">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="AD8">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="AE8">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="AH8">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="AI8">
+        <v>0.69630000000000003</v>
+      </c>
+      <c r="AJ8">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="AK8">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="AL8">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AM8">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="AN8">
         <v>0.67190000000000005</v>
       </c>
-      <c r="Z8">
-        <v>0.68359999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>0.68679999999999997</v>
-      </c>
-      <c r="AB8">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="AC8">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="AD8">
-        <v>0.67959999999999998</v>
-      </c>
-      <c r="AE8">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="AF8">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="AG8">
-        <v>0.68689999999999996</v>
-      </c>
-      <c r="AH8">
-        <v>0.68779999999999997</v>
-      </c>
-      <c r="AI8">
-        <v>0.71160000000000001</v>
-      </c>
-      <c r="AJ8">
-        <v>0.68420000000000003</v>
-      </c>
-      <c r="AK8">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="AL8">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="AM8">
-        <v>0.6653</v>
-      </c>
-      <c r="AN8">
-        <v>0.68320000000000003</v>
-      </c>
       <c r="AO8">
-        <v>0.65249999999999997</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AP8">
-        <v>0.67820000000000003</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.70399999999999996</v>
+        <v>0.6956</v>
       </c>
       <c r="AR8">
-        <v>0.68820000000000003</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="AS8">
-        <v>0.65149999999999997</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AT8">
-        <v>0.69689999999999996</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="AU8">
-        <v>0.66500000000000004</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="AV8">
-        <v>0.72729999999999995</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="AW8">
-        <v>0.65439999999999998</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="AX8">
-        <v>0.68910000000000005</v>
+        <v>0.68469999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.68859999999999999</v>
+        <v>0.64319999999999999</v>
       </c>
       <c r="B9">
-        <v>0.61870000000000003</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="C9">
-        <v>0.67230000000000001</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="D9">
-        <v>0.67410000000000003</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="E9">
-        <v>0.65700000000000003</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="F9">
-        <v>0.66739999999999999</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="G9">
-        <v>0.62770000000000004</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="H9">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.6502</v>
+      </c>
+      <c r="J9">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="M9">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.70740000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="T9">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="U9">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="W9">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="Y9">
         <v>0.64849999999999997</v>
       </c>
-      <c r="I9">
-        <v>0.66459999999999997</v>
-      </c>
-      <c r="J9">
-        <v>0.67420000000000002</v>
-      </c>
-      <c r="K9">
-        <v>0.67659999999999998</v>
-      </c>
-      <c r="L9">
-        <v>0.6673</v>
-      </c>
-      <c r="M9">
+      <c r="Z9">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="AB9">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="AC9">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="AD9">
+        <v>0.6099</v>
+      </c>
+      <c r="AE9">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="AG9">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="AH9">
         <v>0.67549999999999999</v>
       </c>
-      <c r="N9">
-        <v>0.6946</v>
-      </c>
-      <c r="O9">
-        <v>0.66510000000000002</v>
-      </c>
-      <c r="P9">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="Q9">
-        <v>0.67759999999999998</v>
-      </c>
-      <c r="R9">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="S9">
-        <v>0.6492</v>
-      </c>
-      <c r="T9">
-        <v>0.66579999999999995</v>
-      </c>
-      <c r="U9">
-        <v>0.70879999999999999</v>
-      </c>
-      <c r="V9">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="W9">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="X9">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="Y9">
-        <v>0.6603</v>
-      </c>
-      <c r="Z9">
-        <v>0.68989999999999996</v>
-      </c>
-      <c r="AA9">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="AB9">
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="AC9">
-        <v>0.70579999999999998</v>
-      </c>
-      <c r="AD9">
-        <v>0.66969999999999996</v>
-      </c>
-      <c r="AE9">
-        <v>0.68620000000000003</v>
-      </c>
-      <c r="AF9">
-        <v>0.68289999999999995</v>
-      </c>
-      <c r="AG9">
-        <v>0.69310000000000005</v>
-      </c>
-      <c r="AH9">
-        <v>0.68410000000000004</v>
-      </c>
       <c r="AI9">
-        <v>0.70309999999999995</v>
+        <v>0.68420000000000003</v>
       </c>
       <c r="AJ9">
-        <v>0.67220000000000002</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="AK9">
-        <v>0.67459999999999998</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="AL9">
-        <v>0.65980000000000005</v>
+        <v>0.6623</v>
       </c>
       <c r="AM9">
-        <v>0.6734</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="AN9">
-        <v>0.68520000000000003</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.64500000000000002</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.66859999999999997</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="AQ9">
-        <v>0.67359999999999998</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.67800000000000005</v>
+        <v>0.6774</v>
       </c>
       <c r="AS9">
-        <v>0.63719999999999999</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="AT9">
-        <v>0.70499999999999996</v>
+        <v>0.6845</v>
       </c>
       <c r="AU9">
-        <v>0.66659999999999997</v>
+        <v>0.59740000000000004</v>
       </c>
       <c r="AV9">
-        <v>0.70120000000000005</v>
+        <v>0.67569999999999997</v>
       </c>
       <c r="AW9">
-        <v>0.65310000000000001</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="AX9">
-        <v>0.6542</v>
+        <v>0.67349999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.67989999999999995</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="B10">
-        <v>0.62209999999999999</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="C10">
-        <v>0.65739999999999998</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="D10">
-        <v>0.66400000000000003</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="E10">
-        <v>0.65100000000000002</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="F10">
-        <v>0.6633</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="G10">
-        <v>0.62690000000000001</v>
+        <v>0.66610000000000003</v>
       </c>
       <c r="H10">
-        <v>0.63880000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="I10">
-        <v>0.66</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="J10">
-        <v>0.67430000000000001</v>
+        <v>0.65649999999999997</v>
       </c>
       <c r="K10">
-        <v>0.66679999999999995</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="L10">
-        <v>0.66679999999999995</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="M10">
-        <v>0.65029999999999999</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="N10">
-        <v>0.69179999999999997</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="O10">
-        <v>0.66149999999999998</v>
+        <v>0.69020000000000004</v>
       </c>
       <c r="P10">
-        <v>0.65900000000000003</v>
+        <v>0.68679999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.67849999999999999</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="R10">
-        <v>0.66120000000000001</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="S10">
-        <v>0.65190000000000003</v>
+        <v>0.64129999999999998</v>
       </c>
       <c r="T10">
-        <v>0.66290000000000004</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="U10">
-        <v>0.70340000000000003</v>
+        <v>0.67510000000000003</v>
       </c>
       <c r="V10">
-        <v>0.65910000000000002</v>
+        <v>0.65529999999999999</v>
       </c>
       <c r="W10">
-        <v>0.63049999999999995</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="X10">
-        <v>0.62409999999999999</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="Y10">
-        <v>0.64649999999999996</v>
+        <v>0.6331</v>
       </c>
       <c r="Z10">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="AA10">
         <v>0.66949999999999998</v>
       </c>
-      <c r="AA10">
-        <v>0.67210000000000003</v>
-      </c>
       <c r="AB10">
-        <v>0.67710000000000004</v>
+        <v>0.6472</v>
       </c>
       <c r="AC10">
-        <v>0.70369999999999999</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.65690000000000004</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.6855</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="AF10">
-        <v>0.68320000000000003</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="AG10">
-        <v>0.67259999999999998</v>
+        <v>0.65529999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.68440000000000001</v>
+        <v>0.68049999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.6915</v>
+        <v>0.67769999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.66690000000000005</v>
+        <v>0.6482</v>
       </c>
       <c r="AK10">
-        <v>0.66500000000000004</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="AL10">
-        <v>0.64029999999999998</v>
+        <v>0.64559999999999995</v>
       </c>
       <c r="AM10">
-        <v>0.65339999999999998</v>
+        <v>0.68410000000000004</v>
       </c>
       <c r="AN10">
-        <v>0.65910000000000002</v>
+        <v>0.66620000000000001</v>
       </c>
       <c r="AO10">
-        <v>0.65100000000000002</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="AP10">
-        <v>0.65690000000000004</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AQ10">
-        <v>0.68210000000000004</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="AR10">
-        <v>0.67479999999999996</v>
+        <v>0.6734</v>
       </c>
       <c r="AS10">
-        <v>0.65069999999999995</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AT10">
-        <v>0.67910000000000004</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="AU10">
-        <v>0.64280000000000004</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="AV10">
-        <v>0.70269999999999999</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="AW10">
-        <v>0.63580000000000003</v>
+        <v>0.6694</v>
       </c>
       <c r="AX10">
-        <v>0.66249999999999998</v>
+        <v>0.67220000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.67720000000000002</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="B11">
-        <v>0.62160000000000004</v>
+        <v>0.62609999999999999</v>
       </c>
       <c r="C11">
-        <v>0.63880000000000003</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D11">
-        <v>0.65539999999999998</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="E11">
-        <v>0.64459999999999995</v>
+        <v>0.60819999999999996</v>
       </c>
       <c r="F11">
-        <v>0.64829999999999999</v>
+        <v>0.69269999999999998</v>
       </c>
       <c r="G11">
-        <v>0.60589999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H11">
-        <v>0.64639999999999997</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="I11">
-        <v>0.66469999999999996</v>
+        <v>0.6411</v>
       </c>
       <c r="J11">
-        <v>0.65100000000000002</v>
+        <v>0.6462</v>
       </c>
       <c r="K11">
-        <v>0.66520000000000001</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="L11">
-        <v>0.66069999999999995</v>
+        <v>0.63190000000000002</v>
       </c>
       <c r="M11">
-        <v>0.65339999999999998</v>
+        <v>0.6341</v>
       </c>
       <c r="N11">
-        <v>0.67669999999999997</v>
+        <v>0.67930000000000001</v>
       </c>
       <c r="O11">
-        <v>0.65469999999999995</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="P11">
-        <v>0.64559999999999995</v>
+        <v>0.66849999999999998</v>
       </c>
       <c r="Q11">
-        <v>0.66669999999999996</v>
+        <v>0.65480000000000005</v>
       </c>
       <c r="R11">
-        <v>0.64980000000000004</v>
+        <v>0.6905</v>
       </c>
       <c r="S11">
-        <v>0.63629999999999998</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="T11">
-        <v>0.64070000000000005</v>
+        <v>0.6623</v>
       </c>
       <c r="U11">
-        <v>0.69189999999999996</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="V11">
-        <v>0.65949999999999998</v>
+        <v>0.62809999999999999</v>
       </c>
       <c r="W11">
-        <v>0.61480000000000001</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="X11">
-        <v>0.61550000000000005</v>
+        <v>0.60770000000000002</v>
       </c>
       <c r="Y11">
-        <v>0.65749999999999997</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="Z11">
-        <v>0.6623</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="AA11">
-        <v>0.64780000000000004</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.66700000000000004</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="AC11">
-        <v>0.68330000000000002</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AD11">
-        <v>0.65600000000000003</v>
+        <v>0.58919999999999995</v>
       </c>
       <c r="AE11">
-        <v>0.6784</v>
+        <v>0.66120000000000001</v>
       </c>
       <c r="AF11">
-        <v>0.68059999999999998</v>
+        <v>0.63370000000000004</v>
       </c>
       <c r="AG11">
-        <v>0.65959999999999996</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.66959999999999997</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.67630000000000001</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="AJ11">
-        <v>0.66300000000000003</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.65539999999999998</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="AL11">
-        <v>0.64159999999999995</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="AM11">
-        <v>0.63170000000000004</v>
+        <v>0.66990000000000005</v>
       </c>
       <c r="AN11">
-        <v>0.66069999999999995</v>
+        <v>0.6573</v>
       </c>
       <c r="AO11">
-        <v>0.63170000000000004</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.63500000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.66720000000000002</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="AR11">
-        <v>0.65810000000000002</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="AS11">
         <v>0.63759999999999994</v>
       </c>
       <c r="AT11">
-        <v>0.68559999999999999</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.62539999999999996</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="AV11">
-        <v>0.69840000000000002</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.62749999999999995</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.67330000000000001</v>
+        <v>0.6643</v>
       </c>
     </row>
   </sheetData>
